--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AR_50_9.xlsx
@@ -369,185 +369,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
-      <c r="C3">
-        <v>0.8905125301442052</v>
-      </c>
-      <c r="D3">
-        <v>1.141887928483976</v>
-      </c>
       <c r="E3">
         <v>1.218009596270675</v>
       </c>
@@ -692,26 +683,11 @@
       <c r="AZ3">
         <v>1.218009596270675</v>
       </c>
-      <c r="BA3">
-        <v>1.218009596270675</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
-      <c r="C4">
-        <v>0.8635631587996073</v>
-      </c>
-      <c r="D4">
-        <v>1.107230984399044</v>
-      </c>
-      <c r="E4">
-        <v>-0.4641323501900163</v>
-      </c>
-      <c r="F4">
-        <v>0.4727443609437554</v>
-      </c>
       <c r="G4">
         <v>0.5544720893820188</v>
       </c>
@@ -850,37 +826,16 @@
       <c r="AZ4">
         <v>0.5544720893820188</v>
       </c>
-      <c r="BA4">
-        <v>0.5544720893820188</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>0.8686819126378031</v>
-      </c>
-      <c r="D5">
-        <v>-1.200227208548255</v>
-      </c>
-      <c r="E5">
-        <v>-0.4123788810774465</v>
-      </c>
-      <c r="F5">
-        <v>0.870272274892292</v>
-      </c>
-      <c r="G5">
-        <v>0.7953247379026918</v>
-      </c>
-      <c r="H5">
-        <v>1.249231320663591</v>
-      </c>
       <c r="I5">
-        <v>1.173294700162031</v>
+        <v>1.173294700162053</v>
       </c>
       <c r="J5">
-        <v>1.173294700162031</v>
+        <v>1.173294700162053</v>
       </c>
       <c r="K5">
         <v>1.173294700162031</v>
@@ -1008,32 +963,11 @@
       <c r="AZ5">
         <v>1.173294700162031</v>
       </c>
-      <c r="BA5">
-        <v>1.173294700162031</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>0.01055188527989692</v>
-      </c>
-      <c r="F6">
-        <v>0.8442010698669122</v>
-      </c>
-      <c r="G6">
-        <v>0.8050377466615632</v>
-      </c>
-      <c r="H6">
-        <v>1.267666195225248</v>
-      </c>
-      <c r="I6">
-        <v>1.205864328335093</v>
-      </c>
-      <c r="J6">
-        <v>1.1299540917866</v>
-      </c>
       <c r="K6">
         <v>1.180518841971723</v>
       </c>
@@ -1160,31 +1094,16 @@
       <c r="AZ6">
         <v>1.180518841971723</v>
       </c>
-      <c r="BA6">
-        <v>1.180518841971723</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>0.8339712525259113</v>
-      </c>
-      <c r="H7">
-        <v>1.04605948216705</v>
-      </c>
-      <c r="I7">
-        <v>1.4677512611601</v>
-      </c>
-      <c r="J7">
-        <v>1.126473096463121</v>
-      </c>
       <c r="K7">
-        <v>1.508698476056081</v>
+        <v>1.1370912555561</v>
       </c>
       <c r="L7">
-        <v>0.9276272455014611</v>
+        <v>0.9512119708358302</v>
       </c>
       <c r="M7">
         <v>0.9276272455014611</v>
@@ -1306,31 +1225,22 @@
       <c r="AZ7">
         <v>0.9276272455014611</v>
       </c>
-      <c r="BA7">
-        <v>0.9276272455014611</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>1.104652889101509</v>
-      </c>
-      <c r="J8">
-        <v>1.024213583932032</v>
-      </c>
       <c r="K8">
-        <v>1.442118912800039</v>
+        <v>1.040171220267538</v>
       </c>
       <c r="L8">
-        <v>1.042184089507381</v>
+        <v>0.9990492459760025</v>
       </c>
       <c r="M8">
-        <v>1.129954091786578</v>
+        <v>0.9849212343369107</v>
       </c>
       <c r="N8">
-        <v>1.30704451907393</v>
+        <v>1.149724574326472</v>
       </c>
       <c r="O8">
         <v>1.265990289415564</v>
@@ -1446,31 +1356,25 @@
       <c r="AZ8">
         <v>1.265990289415564</v>
       </c>
-      <c r="BA8">
-        <v>1.265990289415564</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>1.171383972177953</v>
-      </c>
       <c r="L9">
-        <v>1.002431887509103</v>
+        <v>1.002678119912548</v>
       </c>
       <c r="M9">
-        <v>1.131984351046111</v>
+        <v>0.9975214723639825</v>
       </c>
       <c r="N9">
-        <v>1.614468108622069</v>
+        <v>1.044407816150583</v>
       </c>
       <c r="O9">
-        <v>1.715659375508571</v>
+        <v>1.242282657891813</v>
       </c>
       <c r="P9">
-        <v>1.578526694644333</v>
+        <v>1.525861534474027</v>
       </c>
       <c r="Q9">
         <v>1.642047742738506</v>
@@ -1580,31 +1484,25 @@
       <c r="AZ9">
         <v>1.642047742738506</v>
       </c>
-      <c r="BA9">
-        <v>1.642047742738506</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>1.033118199929528</v>
-      </c>
       <c r="N10">
-        <v>1.143782862820131</v>
+        <v>1.026384271992731</v>
       </c>
       <c r="O10">
-        <v>1.583523139727916</v>
+        <v>1.073084946192737</v>
       </c>
       <c r="P10">
-        <v>1.309080359028436</v>
+        <v>1.137551461271413</v>
       </c>
       <c r="Q10">
-        <v>1.470010055742232</v>
+        <v>1.358051868183585</v>
       </c>
       <c r="R10">
-        <v>1.725489977756145</v>
+        <v>1.634644186146694</v>
       </c>
       <c r="S10">
         <v>1.66194179127146</v>
@@ -1708,31 +1606,25 @@
       <c r="AZ10">
         <v>1.66194179127146</v>
       </c>
-      <c r="BA10">
-        <v>1.66194179127146</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>1.223946189593095</v>
-      </c>
       <c r="P11">
-        <v>1.145441374517198</v>
+        <v>1.113729864481616</v>
       </c>
       <c r="Q11">
-        <v>1.193933272586212</v>
+        <v>1.161431078031439</v>
       </c>
       <c r="R11">
-        <v>1.63410242004518</v>
+        <v>1.2772981976928</v>
       </c>
       <c r="S11">
-        <v>1.616008876909447</v>
+        <v>1.377345568933785</v>
       </c>
       <c r="T11">
-        <v>1.501780248496876</v>
+        <v>1.518308876725216</v>
       </c>
       <c r="U11">
         <v>1.609733807897773</v>
@@ -1830,37 +1722,31 @@
       <c r="AZ11">
         <v>1.609733807897773</v>
       </c>
-      <c r="BA11">
-        <v>1.609733807897773</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>1.173448893240581</v>
-      </c>
       <c r="R12">
-        <v>1.493946511498723</v>
+        <v>1.202926738926546</v>
       </c>
       <c r="S12">
-        <v>1.505989891628379</v>
+        <v>1.226331080806964</v>
       </c>
       <c r="T12">
-        <v>1.217962330084799</v>
+        <v>1.265181861560016</v>
       </c>
       <c r="U12">
-        <v>1.590469215865564</v>
+        <v>1.476362359157601</v>
       </c>
       <c r="V12">
-        <v>1.755561861459198</v>
+        <v>1.543729645060155</v>
       </c>
       <c r="W12">
-        <v>1.651362568149239</v>
+        <v>1.593309007378396</v>
       </c>
       <c r="X12">
-        <v>1.641178243814534</v>
+        <v>1.625510966833699</v>
       </c>
       <c r="Y12">
         <v>1.641178243814534</v>
@@ -1946,46 +1832,37 @@
       <c r="AZ12">
         <v>1.641178243814534</v>
       </c>
-      <c r="BA12">
-        <v>1.641178243814534</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>1.302750635530403</v>
-      </c>
-      <c r="S13">
-        <v>1.294326158032266</v>
-      </c>
       <c r="T13">
-        <v>1.21209408169991</v>
+        <v>1.235340314564182</v>
       </c>
       <c r="U13">
-        <v>1.458568208481803</v>
+        <v>1.28215746254714</v>
       </c>
       <c r="V13">
-        <v>1.926039468644802</v>
+        <v>1.300276757748131</v>
       </c>
       <c r="W13">
-        <v>1.769319546243286</v>
+        <v>1.33496666414632</v>
       </c>
       <c r="X13">
-        <v>1.794850390332114</v>
+        <v>1.389880404536159</v>
       </c>
       <c r="Y13">
-        <v>1.771972203993366</v>
+        <v>1.451677407676555</v>
       </c>
       <c r="Z13">
-        <v>1.584399974297779</v>
+        <v>1.40478695938655</v>
       </c>
       <c r="AA13">
-        <v>1.436930974076023</v>
+        <v>1.565661119702044</v>
       </c>
       <c r="AB13">
-        <v>1.233734107395001</v>
+        <v>1.278716251422285</v>
       </c>
       <c r="AC13">
         <v>1.183163144818633</v>
@@ -2059,52 +1936,40 @@
       <c r="AZ13">
         <v>1.183163144818633</v>
       </c>
-      <c r="BA13">
-        <v>1.183163144818633</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>1.225085803910209</v>
-      </c>
-      <c r="U14">
-        <v>1.312662777582574</v>
-      </c>
-      <c r="V14">
-        <v>1.707101725511184</v>
-      </c>
       <c r="W14">
-        <v>1.633107831377623</v>
+        <v>1.2856349113197</v>
       </c>
       <c r="X14">
-        <v>1.629036788086102</v>
+        <v>1.296867884531316</v>
       </c>
       <c r="Y14">
-        <v>1.322776438978934</v>
+        <v>1.312321468795918</v>
       </c>
       <c r="Z14">
-        <v>1.381429930467726</v>
+        <v>1.299747890163894</v>
       </c>
       <c r="AA14">
-        <v>1.164871729964068</v>
+        <v>1.412546132271975</v>
       </c>
       <c r="AB14">
-        <v>0.9628637208823232</v>
+        <v>0.9547907592929672</v>
       </c>
       <c r="AC14">
-        <v>0.6359715250869202</v>
+        <v>0.6182077276742692</v>
       </c>
       <c r="AD14">
-        <v>0.6125740497801901</v>
+        <v>0.5944663954777107</v>
       </c>
       <c r="AE14">
-        <v>-2.611320921915661</v>
+        <v>0.287327989413555</v>
       </c>
       <c r="AF14">
-        <v>-3.450801915528212</v>
+        <v>-3.662861831460751</v>
       </c>
       <c r="AG14">
         <v>-3.662861831460751</v>
@@ -2166,58 +2031,40 @@
       <c r="AZ14">
         <v>-3.662861831460751</v>
       </c>
-      <c r="BA14">
-        <v>-3.662861831460751</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>1.453362769379174</v>
-      </c>
-      <c r="W15">
-        <v>1.396070522727699</v>
-      </c>
-      <c r="X15">
-        <v>1.386046628357374</v>
-      </c>
-      <c r="Y15">
-        <v>1.076833872677652</v>
-      </c>
-      <c r="Z15">
-        <v>1.241069207540568</v>
-      </c>
       <c r="AA15">
-        <v>1.233479498872758</v>
+        <v>1.324339294323096</v>
       </c>
       <c r="AB15">
-        <v>1.224470396795163</v>
+        <v>1.244260531582397</v>
       </c>
       <c r="AC15">
-        <v>1.286296191913139</v>
+        <v>1.165879822795834</v>
       </c>
       <c r="AD15">
-        <v>1.404132125351443</v>
+        <v>1.157571511765587</v>
       </c>
       <c r="AE15">
-        <v>3.850129105119438</v>
+        <v>0.9047322996724727</v>
       </c>
       <c r="AF15">
-        <v>4.307664622184548</v>
+        <v>-16.60878031022854</v>
       </c>
       <c r="AG15">
-        <v>2.927704432898959</v>
+        <v>-1.655311137157178</v>
       </c>
       <c r="AH15">
-        <v>0.3647198962692944</v>
+        <v>-2.22608658996023</v>
       </c>
       <c r="AI15">
-        <v>-0.4361073826740891</v>
+        <v>-1.746350382706474</v>
       </c>
       <c r="AJ15">
-        <v>0.1757848091566316</v>
+        <v>0.1010915562932313</v>
       </c>
       <c r="AK15">
         <v>0.1010915562932313</v>
@@ -2267,61 +2114,40 @@
       <c r="AZ15">
         <v>0.1010915562932313</v>
       </c>
-      <c r="BA15">
-        <v>0.1010915562932313</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>1.285542591789413</v>
-      </c>
-      <c r="Z16">
-        <v>1.316205886290023</v>
-      </c>
-      <c r="AA16">
-        <v>1.290038725069964</v>
-      </c>
-      <c r="AB16">
-        <v>1.260130887461508</v>
-      </c>
-      <c r="AC16">
-        <v>1.25393318176712</v>
-      </c>
-      <c r="AD16">
-        <v>1.458475416150473</v>
-      </c>
       <c r="AE16">
-        <v>2.500866561923609</v>
+        <v>1.14251002763186</v>
       </c>
       <c r="AF16">
-        <v>1.861811355177267</v>
+        <v>-124.6154137129952</v>
       </c>
       <c r="AG16">
-        <v>1.997414758748706</v>
+        <v>0.662028472911369</v>
       </c>
       <c r="AH16">
-        <v>3.541600502121756</v>
+        <v>0.4768873021284703</v>
       </c>
       <c r="AI16">
-        <v>7.28622760880111</v>
+        <v>0.7112343933969312</v>
       </c>
       <c r="AJ16">
-        <v>9.515221393159411</v>
+        <v>2.318221029985912</v>
       </c>
       <c r="AK16">
-        <v>9.892324944215902</v>
+        <v>4.631210905746741</v>
       </c>
       <c r="AL16">
-        <v>6.577442533483757</v>
+        <v>5.403124048473162</v>
       </c>
       <c r="AM16">
-        <v>6.173185202525522</v>
+        <v>5.778434165738466</v>
       </c>
       <c r="AN16">
-        <v>6.15369818068785</v>
+        <v>5.793673192389748</v>
       </c>
       <c r="AO16">
         <v>5.793673192389748</v>
@@ -2359,61 +2185,43 @@
       <c r="AZ16">
         <v>5.793673192389748</v>
       </c>
-      <c r="BA16">
-        <v>5.793673192389748</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>1.306071803073405</v>
-      </c>
-      <c r="AD17">
-        <v>1.33970524220457</v>
-      </c>
-      <c r="AE17">
-        <v>1.354152873206793</v>
-      </c>
-      <c r="AF17">
-        <v>1.294813392068339</v>
-      </c>
-      <c r="AG17">
-        <v>1.500410350906156</v>
-      </c>
       <c r="AH17">
-        <v>1.461453783962052</v>
+        <v>0.6977505081586122</v>
       </c>
       <c r="AI17">
-        <v>1.710461006969544</v>
+        <v>0.7712038598366666</v>
       </c>
       <c r="AJ17">
-        <v>1.751487603460156</v>
+        <v>1.206830904727818</v>
       </c>
       <c r="AK17">
-        <v>1.833405760034057</v>
+        <v>1.133793142186668</v>
       </c>
       <c r="AL17">
-        <v>4.756787562426035</v>
+        <v>1.332661664932155</v>
       </c>
       <c r="AM17">
-        <v>4.358310855341885</v>
+        <v>1.531961367047852</v>
       </c>
       <c r="AN17">
-        <v>3.641402330987509</v>
+        <v>1.555532555957284</v>
       </c>
       <c r="AO17">
-        <v>-1.030443073022624</v>
+        <v>1.066562775371072</v>
       </c>
       <c r="AP17">
-        <v>-0.4918103610675129</v>
+        <v>0.2475175776772698</v>
       </c>
       <c r="AQ17">
-        <v>-0.234006599140768</v>
+        <v>-0.2355225117835369</v>
       </c>
       <c r="AR17">
-        <v>-0.2922548206748199</v>
+        <v>-0.3788601787194756</v>
       </c>
       <c r="AS17">
         <v>-0.3788601787194756</v>
@@ -2439,61 +2247,43 @@
       <c r="AZ17">
         <v>-0.3788601787194756</v>
       </c>
-      <c r="BA17">
-        <v>-0.3788601787194756</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>1.198030649865145</v>
-      </c>
-      <c r="AH18">
-        <v>1.113658690297892</v>
-      </c>
-      <c r="AI18">
-        <v>1.374699504679699</v>
-      </c>
-      <c r="AJ18">
-        <v>1.613688345532172</v>
-      </c>
-      <c r="AK18">
-        <v>1.181367966772751</v>
-      </c>
       <c r="AL18">
-        <v>1.403475292810397</v>
+        <v>1.260369563957098</v>
       </c>
       <c r="AM18">
-        <v>2.281957256353273</v>
+        <v>1.329032243636563</v>
       </c>
       <c r="AN18">
-        <v>1.854060244949762</v>
+        <v>1.335546555801659</v>
       </c>
       <c r="AO18">
-        <v>1.051076119742622</v>
+        <v>1.357607647433334</v>
       </c>
       <c r="AP18">
-        <v>1.143447910967632</v>
+        <v>1.152334833545998</v>
       </c>
       <c r="AQ18">
-        <v>1.289162234149188</v>
+        <v>0.8847367780353999</v>
       </c>
       <c r="AR18">
-        <v>1.658286804611153</v>
+        <v>0.6685736991727698</v>
       </c>
       <c r="AS18">
-        <v>1.096154841579633</v>
+        <v>0.4316736535407095</v>
       </c>
       <c r="AT18">
-        <v>0.5341373531255966</v>
+        <v>0.2920226091170486</v>
       </c>
       <c r="AU18">
-        <v>0.3834998555659386</v>
+        <v>0.1363842982220032</v>
       </c>
       <c r="AV18">
-        <v>0.1450123585129193</v>
+        <v>0.05771202657300911</v>
       </c>
       <c r="AW18">
         <v>0.05771202657300911</v>
@@ -2507,173 +2297,88 @@
       <c r="AZ18">
         <v>0.05771202657300911</v>
       </c>
-      <c r="BA18">
-        <v>0.05771202657300911</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>1.672478103438602</v>
-      </c>
-      <c r="AL19">
-        <v>1.678577169167506</v>
-      </c>
-      <c r="AM19">
-        <v>1.652822721167135</v>
-      </c>
-      <c r="AN19">
-        <v>1.566344090622906</v>
-      </c>
-      <c r="AO19">
-        <v>1.801085719871298</v>
-      </c>
       <c r="AP19">
-        <v>1.189589295672455</v>
+        <v>1.221541230026624</v>
       </c>
       <c r="AQ19">
-        <v>1.154947778722559</v>
+        <v>1.144740401555411</v>
       </c>
       <c r="AR19">
-        <v>1.749597906668465</v>
+        <v>1.112377218389971</v>
       </c>
       <c r="AS19">
-        <v>1.948880737908265</v>
+        <v>1.122596096286421</v>
       </c>
       <c r="AT19">
-        <v>1.989261364876138</v>
+        <v>1.085023935653551</v>
       </c>
       <c r="AU19">
-        <v>1.938634904219727</v>
+        <v>0.9899450936446508</v>
       </c>
       <c r="AV19">
-        <v>1.660123065973873</v>
+        <v>0.866426166328349</v>
       </c>
       <c r="AW19">
-        <v>1.206367397320696</v>
+        <v>0.8173856700710358</v>
       </c>
       <c r="AX19">
-        <v>0.8226227460387703</v>
+        <v>0.7215465982331359</v>
       </c>
       <c r="AY19">
-        <v>0.6741729974461208</v>
+        <v>0.678264046940269</v>
       </c>
       <c r="AZ19">
-        <v>0.6213128948874713</v>
-      </c>
-      <c r="BA19">
         <v>0.6062046309774693</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>1.117972091555997</v>
-      </c>
-      <c r="AP20">
-        <v>1.159226372940414</v>
-      </c>
-      <c r="AQ20">
-        <v>1.194655726232519</v>
-      </c>
-      <c r="AR20">
-        <v>1.238806297170036</v>
-      </c>
-      <c r="AS20">
-        <v>1.14115545939546</v>
-      </c>
       <c r="AT20">
-        <v>1.236121590538053</v>
+        <v>1.095178061097402</v>
       </c>
       <c r="AU20">
-        <v>1.299722500261424</v>
+        <v>1.061742647394115</v>
       </c>
       <c r="AV20">
-        <v>1.589958369168509</v>
+        <v>1.037932700191679</v>
       </c>
       <c r="AW20">
-        <v>1.633286107605558</v>
+        <v>1.045820135087605</v>
       </c>
       <c r="AX20">
-        <v>0.7913507800473507</v>
+        <v>1.026748659687282</v>
       </c>
       <c r="AY20">
-        <v>0.6176776338479684</v>
+        <v>1.007646955063968</v>
       </c>
       <c r="AZ20">
-        <v>0.5837874231427564</v>
-      </c>
-      <c r="BA20">
-        <v>0.5310616179077465</v>
+        <v>0.8985052439231866</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>1.250758263680307</v>
-      </c>
-      <c r="AT21">
-        <v>1.212989893777139</v>
-      </c>
-      <c r="AU21">
-        <v>1.19258999399241</v>
-      </c>
-      <c r="AV21">
-        <v>1.158090083949515</v>
-      </c>
-      <c r="AW21">
-        <v>1.019316237487811</v>
-      </c>
       <c r="AX21">
-        <v>0.7743169590211485</v>
+        <v>1.045032527019418</v>
       </c>
       <c r="AY21">
-        <v>0.6641459054703036</v>
+        <v>1.044016637224332</v>
       </c>
       <c r="AZ21">
-        <v>0.7415916938092293</v>
-      </c>
-      <c r="BA21">
-        <v>0.4756940923402064</v>
+        <v>1.026764326026242</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>1.100072412640474</v>
-      </c>
-      <c r="AX22">
-        <v>0.9895190728193004</v>
-      </c>
-      <c r="AY22">
-        <v>0.9551421298039431</v>
-      </c>
-      <c r="AZ22">
-        <v>0.95437307617805</v>
-      </c>
-      <c r="BA22">
-        <v>0.6105425639171935</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>0.8420879147599036</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AR_50_9.xlsx
@@ -2332,7 +2332,7 @@
         <v>-1.741236505435428</v>
       </c>
       <c r="AG17">
-        <v>-5.210209911466245</v>
+        <v>-11.35433171961127</v>
       </c>
       <c r="AH17">
         <v>-4.352425014431304</v>
@@ -2415,19 +2415,19 @@
         <v>-0.2374583495023508</v>
       </c>
       <c r="AG18">
-        <v>-0.6076997714017818</v>
+        <v>-86.41378142719947</v>
       </c>
       <c r="AH18">
-        <v>-1.242805832929039</v>
+        <v>-1.222056059052401</v>
       </c>
       <c r="AI18">
-        <v>-2.740233405906423</v>
+        <v>-2.083284801880281</v>
       </c>
       <c r="AJ18">
-        <v>-3.281345655000223</v>
+        <v>-2.829585457923245</v>
       </c>
       <c r="AK18">
-        <v>-1.897775264882628</v>
+        <v>-3.267557970931712</v>
       </c>
       <c r="AL18">
         <v>-1.761645650979182</v>
@@ -2486,31 +2486,31 @@
         <v>0.7806379083681758</v>
       </c>
       <c r="AG19">
-        <v>0.07545011208631713</v>
+        <v>3977779.697945923</v>
       </c>
       <c r="AH19">
-        <v>0.2520914009490838</v>
+        <v>0.2220333069742342</v>
       </c>
       <c r="AI19">
-        <v>0.509185690804248</v>
+        <v>0.7205250207272362</v>
       </c>
       <c r="AJ19">
-        <v>-0.1411395765833157</v>
+        <v>-0.02600701460458987</v>
       </c>
       <c r="AK19">
-        <v>0.6993852707122938</v>
+        <v>-0.1236387062395816</v>
       </c>
       <c r="AL19">
-        <v>3.46909983288044</v>
+        <v>0.6980411378030738</v>
       </c>
       <c r="AM19">
-        <v>3.920818017292138</v>
+        <v>2.963427100546601</v>
       </c>
       <c r="AN19">
-        <v>4.407642498961351</v>
+        <v>4.274815646690633</v>
       </c>
       <c r="AO19">
-        <v>4.787836378515364</v>
+        <v>4.760338476399095</v>
       </c>
       <c r="AP19">
         <v>5.20787683103745</v>
@@ -2553,38 +2553,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>0.6366893813441798</v>
-      </c>
       <c r="AJ20">
-        <v>0.6557206373097202</v>
+        <v>0.7918080058545218</v>
       </c>
       <c r="AK20">
-        <v>0.8318156841118585</v>
+        <v>0.6407414208644546</v>
       </c>
       <c r="AL20">
-        <v>0.7610577302969768</v>
+        <v>0.8627667146878792</v>
       </c>
       <c r="AM20">
-        <v>1.110570829887347</v>
+        <v>0.78690676136004</v>
       </c>
       <c r="AN20">
-        <v>1.101211681542535</v>
+        <v>1.067796713188396</v>
       </c>
       <c r="AO20">
-        <v>1.219524838989372</v>
+        <v>1.198244109302982</v>
       </c>
       <c r="AP20">
-        <v>1.517423464826884</v>
+        <v>1.605691900741069</v>
       </c>
       <c r="AQ20">
-        <v>0.04995351332486297</v>
+        <v>0.7301796754034084</v>
       </c>
       <c r="AR20">
-        <v>-1.129337961135779</v>
+        <v>-0.3620058052652531</v>
       </c>
       <c r="AS20">
-        <v>-0.49899188013105</v>
+        <v>-0.414516479176652</v>
       </c>
       <c r="AT20">
         <v>-0.9008525709169546</v>
@@ -2615,38 +2612,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>1.039154550475585</v>
-      </c>
       <c r="AN21">
-        <v>1.088705539042367</v>
+        <v>1.070916402869115</v>
       </c>
       <c r="AO21">
-        <v>1.081074395711967</v>
+        <v>1.086716614937489</v>
       </c>
       <c r="AP21">
-        <v>1.136251570469837</v>
+        <v>1.154261447042471</v>
       </c>
       <c r="AQ21">
-        <v>0.861118176709641</v>
+        <v>1.100969582771905</v>
       </c>
       <c r="AR21">
-        <v>0.5661352122229735</v>
+        <v>0.8526129829289797</v>
       </c>
       <c r="AS21">
-        <v>0.6655557872750961</v>
+        <v>0.8038408582027534</v>
       </c>
       <c r="AT21">
-        <v>0.2090788898015949</v>
+        <v>0.4115388134666942</v>
       </c>
       <c r="AU21">
-        <v>0.4162071511232046</v>
+        <v>0.5049100239511883</v>
       </c>
       <c r="AV21">
-        <v>0.2034622429862187</v>
+        <v>0.352566175393898</v>
       </c>
       <c r="AW21">
-        <v>0.5084754301873051</v>
+        <v>0.5764596341398587</v>
       </c>
       <c r="AX21">
         <v>0.2738544794132824</v>
@@ -2665,78 +2659,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>0.9347016881379178</v>
-      </c>
       <c r="AR22">
-        <v>0.8152168992882292</v>
+        <v>0.9606100873210677</v>
       </c>
       <c r="AS22">
-        <v>0.8306432340059677</v>
+        <v>0.8959516400099954</v>
       </c>
       <c r="AT22">
-        <v>0.7921198624014192</v>
+        <v>0.7806527961665477</v>
       </c>
       <c r="AU22">
-        <v>0.7845554863595172</v>
+        <v>0.8138146925835477</v>
       </c>
       <c r="AV22">
-        <v>0.6701250445558804</v>
+        <v>0.7200685864094503</v>
       </c>
       <c r="AW22">
-        <v>0.7125770617453231</v>
+        <v>0.7779893081418576</v>
       </c>
       <c r="AX22">
-        <v>0.5362040463673612</v>
+        <v>0.6247505135484666</v>
       </c>
       <c r="AY22">
-        <v>0.5222112282702973</v>
+        <v>0.5923184148079574</v>
       </c>
       <c r="AZ22">
-        <v>0.9632017291179906</v>
+        <v>0.9127736322763536</v>
       </c>
       <c r="BA22">
-        <v>0.9584581489103794</v>
+        <v>0.9763219302888704</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>0.7962410978201717</v>
-      </c>
       <c r="AV23">
-        <v>0.773250719082319</v>
+        <v>0.7933168657237699</v>
       </c>
       <c r="AW23">
-        <v>0.8028066821167856</v>
+        <v>0.7991228848251097</v>
       </c>
       <c r="AX23">
-        <v>0.7787944929252166</v>
+        <v>0.7669379062289261</v>
       </c>
       <c r="AY23">
-        <v>0.8164751105439905</v>
+        <v>0.8307144575629977</v>
       </c>
       <c r="AZ23">
-        <v>0.8649794511895736</v>
+        <v>0.8664788249411304</v>
       </c>
       <c r="BA23">
-        <v>0.8209425653958213</v>
+        <v>0.8639434569707394</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>0.8236124274564105</v>
-      </c>
       <c r="AZ24">
-        <v>0.8251805631560805</v>
+        <v>0.8381163757031684</v>
       </c>
       <c r="BA24">
-        <v>0.7897348033191642</v>
+        <v>0.8202605398609286</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AR_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2197 +535,1876 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="F3">
+        <v>0.348613976222456</v>
+      </c>
+      <c r="G3">
+        <v>0.02125477897392258</v>
+      </c>
+      <c r="H3">
+        <v>0.1378930438326487</v>
+      </c>
+      <c r="I3">
+        <v>0.1645590530038321</v>
+      </c>
+      <c r="J3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="K3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="L3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="M3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="N3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="O3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="P3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="Q3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="R3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="S3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="T3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="U3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="V3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="W3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="X3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="Y3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="Z3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AA3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AB3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AC3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AD3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AE3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AF3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AG3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AH3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AI3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AJ3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AK3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AL3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AM3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AN3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AO3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AP3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AQ3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AR3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AS3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AT3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AU3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AV3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AW3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AX3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AY3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="AZ3">
+        <v>0.2361821772587591</v>
+      </c>
+      <c r="BA3">
+        <v>0.2361821772587591</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>0.4235526809466261</v>
-      </c>
-      <c r="C4">
-        <v>0.4671277234259641</v>
-      </c>
-      <c r="D4">
-        <v>0.6466961714006514</v>
-      </c>
-      <c r="E4">
-        <v>0.5860699690882987</v>
-      </c>
-      <c r="F4">
-        <v>0.5719394752520701</v>
+        <v>40543</v>
       </c>
       <c r="G4">
-        <v>0.5719394752520701</v>
+        <v>-1.0538757111625</v>
       </c>
       <c r="H4">
-        <v>0.5719394752520701</v>
+        <v>-0.1384957661262676</v>
       </c>
       <c r="I4">
-        <v>0.5719394752520701</v>
+        <v>-0.1878451124955771</v>
       </c>
       <c r="J4">
-        <v>0.5719394752520701</v>
+        <v>0.07112839993437259</v>
       </c>
       <c r="K4">
-        <v>0.5719394752520701</v>
+        <v>0.05207435813390227</v>
       </c>
       <c r="L4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="M4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="N4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="O4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="P4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="Q4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="R4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="S4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="T4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="U4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="V4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="W4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="X4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="Y4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="Z4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AA4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AB4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AC4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AD4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AE4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AF4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AG4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AH4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AI4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AJ4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AK4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AL4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AM4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AN4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AO4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AP4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AQ4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AR4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AS4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AT4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AU4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AV4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AW4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AX4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AY4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="AZ4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
       <c r="BA4">
-        <v>0.5719394752520701</v>
+        <v>0.1732386938003039</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="D5">
-        <v>-0.571807692896309</v>
-      </c>
-      <c r="E5">
-        <v>-0.3042113081857756</v>
-      </c>
-      <c r="F5">
-        <v>-0.0412904280341464</v>
+        <v>40908</v>
       </c>
       <c r="G5">
-        <v>-0.0412904280341464</v>
+        <v>-0.03775702182786667</v>
       </c>
       <c r="H5">
-        <v>0.1948678350150335</v>
+        <v>0.5922117994852982</v>
       </c>
       <c r="I5">
-        <v>0.1948678350150335</v>
+        <v>1.570920254756514</v>
       </c>
       <c r="J5">
-        <v>0.1948678350150335</v>
+        <v>1.566479473280191</v>
       </c>
       <c r="K5">
-        <v>0.1948678350150335</v>
+        <v>1.605821507009142</v>
       </c>
       <c r="L5">
-        <v>0.1948678350150335</v>
+        <v>1.840891710989334</v>
       </c>
       <c r="M5">
-        <v>0.1948678350150335</v>
+        <v>1.840891710989334</v>
       </c>
       <c r="N5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="O5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="P5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="Q5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="R5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="S5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="T5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="U5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="V5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="W5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="X5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="Y5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="Z5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AA5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AB5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AC5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AD5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AE5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AF5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AG5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AH5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AI5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AJ5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AK5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AL5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AM5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AN5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AO5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AP5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AQ5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AR5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AS5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AT5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AU5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AV5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AW5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AX5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AY5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="AZ5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
       <c r="BA5">
-        <v>0.1948678350150335</v>
+        <v>2.130327852244007</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="F6">
-        <v>0.3486139762224783</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>0.02125477897396699</v>
+        <v>0.017763609266086</v>
       </c>
       <c r="H6">
-        <v>0.1378930438326487</v>
+        <v>0.360465012026423</v>
       </c>
       <c r="I6">
-        <v>0.1645590530038321</v>
+        <v>0.4857811499912712</v>
       </c>
       <c r="J6">
-        <v>0.2361821772587591</v>
+        <v>0.5295895589954469</v>
       </c>
       <c r="K6">
-        <v>0.2361821772587591</v>
+        <v>0.878183952843048</v>
       </c>
       <c r="L6">
-        <v>0.2361821772587591</v>
+        <v>0.7307568962937161</v>
       </c>
       <c r="M6">
-        <v>0.2361821772587591</v>
+        <v>0.9629872437042719</v>
       </c>
       <c r="N6">
-        <v>0.2361821772587591</v>
+        <v>1.114185601241036</v>
       </c>
       <c r="O6">
-        <v>0.2361821772587591</v>
+        <v>1.114185601241036</v>
       </c>
       <c r="P6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="Q6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="R6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="S6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="T6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="U6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="V6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="W6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="X6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="Y6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="Z6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AA6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AB6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AC6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AD6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AE6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AF6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AG6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AH6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AI6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AJ6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AK6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AL6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AM6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AN6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AO6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AP6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AQ6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AR6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AS6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AT6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AU6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AV6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AW6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AX6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AY6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="AZ6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
       <c r="BA6">
-        <v>0.2361821772587591</v>
+        <v>1.019364148315116</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="G7">
-        <v>-1.0538757111625</v>
-      </c>
-      <c r="H7">
-        <v>-0.1384957661262898</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>-0.1878451124956104</v>
+        <v>0.4869555907964118</v>
       </c>
       <c r="J7">
-        <v>0.07112839993437259</v>
+        <v>0.5567592375424368</v>
       </c>
       <c r="K7">
-        <v>0.05207435813390227</v>
+        <v>0.6274179984581796</v>
       </c>
       <c r="L7">
-        <v>0.1732386938002817</v>
+        <v>0.5955791956549161</v>
       </c>
       <c r="M7">
-        <v>0.1732386938002817</v>
+        <v>0.4413109953541605</v>
       </c>
       <c r="N7">
-        <v>0.1732386938002817</v>
+        <v>0.8188188121642126</v>
       </c>
       <c r="O7">
-        <v>0.1732386938002817</v>
+        <v>0.8868187137053063</v>
       </c>
       <c r="P7">
-        <v>0.1732386938002817</v>
+        <v>0.7908909437269962</v>
       </c>
       <c r="Q7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="R7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="S7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="T7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="U7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="V7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="W7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="X7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="Y7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="Z7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AA7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AB7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AC7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AD7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AE7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AF7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AG7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AH7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AI7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AJ7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AK7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AL7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AM7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AN7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AO7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AP7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AQ7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AR7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AS7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AT7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AU7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AV7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AW7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AX7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AY7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="AZ7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
       <c r="BA7">
-        <v>0.1732386938002817</v>
+        <v>0.8966256141480056</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="G8">
-        <v>-0.03775702182785556</v>
-      </c>
-      <c r="H8">
-        <v>0.592211799485276</v>
-      </c>
-      <c r="I8">
-        <v>1.570920254756558</v>
-      </c>
-      <c r="J8">
-        <v>1.566479473280147</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>1.605821507009142</v>
+        <v>0.594548342475032</v>
       </c>
       <c r="L8">
-        <v>1.840891710989356</v>
+        <v>0.6246922290190637</v>
       </c>
       <c r="M8">
-        <v>1.840891710989356</v>
+        <v>0.6943226143418357</v>
       </c>
       <c r="N8">
-        <v>2.130327852244052</v>
+        <v>0.9193568360546411</v>
       </c>
       <c r="O8">
-        <v>2.130327852244052</v>
+        <v>0.9083436352771868</v>
       </c>
       <c r="P8">
-        <v>2.130327852244052</v>
+        <v>0.9180054319587239</v>
       </c>
       <c r="Q8">
-        <v>2.130327852244052</v>
+        <v>0.8526770253993288</v>
       </c>
       <c r="R8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="S8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="T8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="U8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="V8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="W8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="X8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="Y8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="Z8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AA8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AB8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AC8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AD8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AE8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AF8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AG8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AH8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AI8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AJ8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AK8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AL8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AM8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AN8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AO8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AP8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AQ8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AR8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AS8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AT8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AU8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AV8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AW8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AX8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AY8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="AZ8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
       <c r="BA8">
-        <v>2.130327852244052</v>
+        <v>0.4602645177979703</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>0.017763609266086</v>
-      </c>
-      <c r="H9">
-        <v>0.360465012026423</v>
-      </c>
-      <c r="I9">
-        <v>0.485781149991249</v>
-      </c>
-      <c r="J9">
-        <v>0.5295895589954247</v>
-      </c>
-      <c r="K9">
-        <v>0.878183952843048</v>
-      </c>
-      <c r="L9">
-        <v>0.7307568962936939</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>0.9629872437042719</v>
+        <v>0.6344152933906333</v>
       </c>
       <c r="N9">
-        <v>1.114185601241058</v>
+        <v>0.7563352888869224</v>
       </c>
       <c r="O9">
-        <v>1.114185601241058</v>
+        <v>0.8175300924318174</v>
       </c>
       <c r="P9">
-        <v>1.019364148315161</v>
+        <v>0.9697679806506043</v>
       </c>
       <c r="Q9">
-        <v>1.019364148315161</v>
+        <v>1.93704103170067</v>
       </c>
       <c r="R9">
-        <v>1.019364148315161</v>
+        <v>1.9846842782967</v>
       </c>
       <c r="S9">
-        <v>1.019364148315161</v>
+        <v>2.015454603059808</v>
       </c>
       <c r="T9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="U9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="V9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="W9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="X9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="Y9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="Z9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AA9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AB9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AC9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AD9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AE9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AF9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AG9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AH9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AI9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AJ9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AK9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AL9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AM9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AN9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AO9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AP9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AQ9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AR9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AS9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AT9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AU9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AV9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AW9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AX9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AY9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="AZ9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
       <c r="BA9">
-        <v>1.019364148315161</v>
+        <v>2.152035874345892</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>0.4869555907964118</v>
-      </c>
-      <c r="J10">
-        <v>0.5567592375424368</v>
-      </c>
-      <c r="K10">
-        <v>0.6274179984581574</v>
-      </c>
-      <c r="L10">
-        <v>0.5955791956549161</v>
-      </c>
-      <c r="M10">
-        <v>0.4413109953541605</v>
-      </c>
-      <c r="N10">
-        <v>0.818818812164257</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.8868187137053507</v>
+        <v>0.764242875188148</v>
       </c>
       <c r="P10">
-        <v>0.7908909437270184</v>
+        <v>0.7834714724153757</v>
       </c>
       <c r="Q10">
-        <v>0.8966256141480056</v>
+        <v>0.8819846436028733</v>
       </c>
       <c r="R10">
-        <v>0.8966256141480056</v>
+        <v>0.970573649360662</v>
       </c>
       <c r="S10">
-        <v>0.8966256141480056</v>
+        <v>1.58745197360306</v>
       </c>
       <c r="T10">
-        <v>0.8966256141480056</v>
+        <v>1.755995812646982</v>
       </c>
       <c r="U10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="V10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="W10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="X10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="Y10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="Z10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AA10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AB10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AC10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AD10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AE10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AF10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AG10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AH10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AI10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AJ10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AK10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AL10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AM10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AN10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AO10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AP10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AQ10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AR10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AS10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AT10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AU10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AV10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AW10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AX10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AY10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="AZ10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
       <c r="BA10">
-        <v>0.8966256141480056</v>
+        <v>1.918040486507278</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>0.5945483424750764</v>
-      </c>
-      <c r="L11">
-        <v>0.6246922290190859</v>
-      </c>
-      <c r="M11">
-        <v>0.6943226143418357</v>
-      </c>
-      <c r="N11">
-        <v>0.9193568360546411</v>
-      </c>
-      <c r="O11">
-        <v>0.9083436352771646</v>
-      </c>
-      <c r="P11">
-        <v>0.9180054319587239</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>0.852677025399351</v>
+        <v>0.8679672102029912</v>
       </c>
       <c r="R11">
-        <v>0.4602645177979703</v>
+        <v>0.8546997557274283</v>
       </c>
       <c r="S11">
-        <v>0.4602645177979703</v>
+        <v>0.9174072565959035</v>
       </c>
       <c r="T11">
-        <v>0.4602645177979703</v>
+        <v>1.083941060573257</v>
       </c>
       <c r="U11">
-        <v>0.4602645177979703</v>
+        <v>1.276746817047369</v>
       </c>
       <c r="V11">
-        <v>0.4602645177979703</v>
+        <v>1.946965557828384</v>
       </c>
       <c r="W11">
-        <v>0.4602645177979703</v>
+        <v>1.889651782168578</v>
       </c>
       <c r="X11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="Y11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="Z11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AA11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AB11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AC11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AD11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AE11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AF11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AG11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AH11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AI11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AJ11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AK11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AL11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AM11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AN11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AO11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AP11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AQ11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AR11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AS11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AT11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AU11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AV11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AW11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AX11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AY11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="AZ11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
       <c r="BA11">
-        <v>0.4602645177979703</v>
+        <v>1.673405723817356</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>0.6344152933906333</v>
-      </c>
-      <c r="N12">
-        <v>0.7563352888869224</v>
-      </c>
-      <c r="O12">
-        <v>0.8175300924317952</v>
-      </c>
-      <c r="P12">
-        <v>0.9697679806505821</v>
-      </c>
-      <c r="Q12">
-        <v>1.93704103170067</v>
-      </c>
-      <c r="R12">
-        <v>1.984684278296656</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>2.015454603059785</v>
+        <v>0.9054545106514267</v>
       </c>
       <c r="T12">
-        <v>2.15203587434587</v>
+        <v>0.9497739711653352</v>
       </c>
       <c r="U12">
-        <v>2.15203587434587</v>
+        <v>0.9840692158344266</v>
       </c>
       <c r="V12">
-        <v>2.15203587434587</v>
+        <v>1.343559319682996</v>
       </c>
       <c r="W12">
-        <v>2.15203587434587</v>
+        <v>0.9903126026122866</v>
       </c>
       <c r="X12">
-        <v>2.15203587434587</v>
+        <v>1.116346046342831</v>
       </c>
       <c r="Y12">
-        <v>2.15203587434587</v>
+        <v>1.219509802703866</v>
       </c>
       <c r="Z12">
-        <v>2.15203587434587</v>
+        <v>1.064321453542272</v>
       </c>
       <c r="AA12">
-        <v>2.15203587434587</v>
+        <v>0.9397793120336617</v>
       </c>
       <c r="AB12">
-        <v>2.15203587434587</v>
+        <v>0.8882776018738658</v>
       </c>
       <c r="AC12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AD12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AE12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AF12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AG12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AH12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AI12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AJ12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AK12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AL12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AM12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AN12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AO12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AP12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AQ12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AR12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AS12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AT12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AU12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AV12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AW12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AX12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AY12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="AZ12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
       <c r="BA12">
-        <v>2.15203587434587</v>
+        <v>0.7965036850253515</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>0.7642428751881258</v>
-      </c>
-      <c r="P13">
-        <v>0.7834714724153535</v>
-      </c>
-      <c r="Q13">
-        <v>0.8819846436028733</v>
-      </c>
-      <c r="R13">
-        <v>0.970573649360662</v>
-      </c>
-      <c r="S13">
-        <v>1.58745197360306</v>
-      </c>
-      <c r="T13">
-        <v>1.755995812646982</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>1.918040486507278</v>
+        <v>0.9768069524719314</v>
       </c>
       <c r="V13">
-        <v>1.918040486507278</v>
+        <v>1.039193228094337</v>
       </c>
       <c r="W13">
-        <v>1.918040486507278</v>
+        <v>1.080096276728471</v>
       </c>
       <c r="X13">
-        <v>1.918040486507278</v>
+        <v>1.076386909629967</v>
       </c>
       <c r="Y13">
-        <v>1.918040486507278</v>
+        <v>1.125010763074807</v>
       </c>
       <c r="Z13">
-        <v>1.918040486507278</v>
+        <v>0.8791375467670504</v>
       </c>
       <c r="AA13">
-        <v>1.918040486507278</v>
+        <v>0.556673290848142</v>
       </c>
       <c r="AB13">
-        <v>1.918040486507278</v>
+        <v>1.437659299153027</v>
       </c>
       <c r="AC13">
-        <v>1.918040486507278</v>
+        <v>1.315960672561256</v>
       </c>
       <c r="AD13">
-        <v>1.918040486507278</v>
+        <v>1.361817904277718</v>
       </c>
       <c r="AE13">
-        <v>1.918040486507278</v>
+        <v>1.364710965483651</v>
       </c>
       <c r="AF13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AG13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AH13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AI13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AJ13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AK13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AL13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AM13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AN13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AO13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AP13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AQ13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AR13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AS13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AT13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AU13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AV13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AW13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AX13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AY13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="AZ13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
       <c r="BA13">
-        <v>1.918040486507278</v>
+        <v>1.420403924237745</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>0.867967210202969</v>
-      </c>
-      <c r="R14">
-        <v>0.8546997557274505</v>
-      </c>
-      <c r="S14">
-        <v>0.9174072565958813</v>
-      </c>
-      <c r="T14">
-        <v>1.083941060573212</v>
-      </c>
-      <c r="U14">
-        <v>1.276746817047392</v>
-      </c>
-      <c r="V14">
-        <v>1.946965557828384</v>
-      </c>
-      <c r="W14">
-        <v>1.889651782168622</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>1.673405723817378</v>
+        <v>1.054167498447423</v>
       </c>
       <c r="Y14">
-        <v>1.673405723817378</v>
+        <v>1.051400393547874</v>
       </c>
       <c r="Z14">
-        <v>1.673405723817378</v>
+        <v>1.013990183590074</v>
       </c>
       <c r="AA14">
-        <v>1.673405723817378</v>
+        <v>0.9336434107631186</v>
       </c>
       <c r="AB14">
-        <v>1.673405723817378</v>
+        <v>1.280675138581389</v>
       </c>
       <c r="AC14">
-        <v>1.673405723817378</v>
+        <v>1.194139179128917</v>
       </c>
       <c r="AD14">
-        <v>1.673405723817378</v>
+        <v>1.226035857429419</v>
       </c>
       <c r="AE14">
-        <v>1.673405723817378</v>
+        <v>1.081390449880848</v>
       </c>
       <c r="AF14">
-        <v>1.673405723817378</v>
+        <v>-1.741236505435417</v>
       </c>
       <c r="AG14">
-        <v>1.673405723817378</v>
+        <v>-11.35433171961128</v>
       </c>
       <c r="AH14">
-        <v>1.673405723817378</v>
+        <v>-4.352425014431327</v>
       </c>
       <c r="AI14">
-        <v>1.673405723817378</v>
+        <v>-4.277673934072568</v>
       </c>
       <c r="AJ14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AK14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AL14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AM14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AN14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AO14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AP14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AQ14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AR14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AS14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AT14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AU14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AV14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AW14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AX14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AY14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="AZ14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
       <c r="BA14">
-        <v>1.673405723817378</v>
+        <v>-4.401478753282307</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>0.9054545106514711</v>
-      </c>
-      <c r="T15">
-        <v>0.9497739711653574</v>
-      </c>
-      <c r="U15">
-        <v>0.9840692158344266</v>
-      </c>
-      <c r="V15">
-        <v>1.343559319682996</v>
-      </c>
-      <c r="W15">
-        <v>0.9903126026122644</v>
-      </c>
-      <c r="X15">
-        <v>1.116346046342809</v>
-      </c>
-      <c r="Y15">
-        <v>1.219509802703822</v>
-      </c>
-      <c r="Z15">
-        <v>1.06432145354225</v>
-      </c>
-      <c r="AA15">
-        <v>0.9397793120336395</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>0.8882776018738214</v>
+        <v>1.144414421193951</v>
       </c>
       <c r="AC15">
-        <v>0.7965036850253293</v>
+        <v>1.135512810346118</v>
       </c>
       <c r="AD15">
-        <v>0.7965036850253293</v>
+        <v>1.124268103235626</v>
       </c>
       <c r="AE15">
-        <v>0.7965036850253293</v>
+        <v>1.151701057323207</v>
       </c>
       <c r="AF15">
-        <v>0.7965036850253293</v>
+        <v>-0.2374583495023397</v>
       </c>
       <c r="AG15">
-        <v>0.7965036850253293</v>
+        <v>-86.41378142719947</v>
       </c>
       <c r="AH15">
-        <v>0.7965036850253293</v>
+        <v>-1.222056059052357</v>
       </c>
       <c r="AI15">
-        <v>0.7965036850253293</v>
+        <v>-2.083284801880303</v>
       </c>
       <c r="AJ15">
-        <v>0.7965036850253293</v>
+        <v>-2.829585457923245</v>
       </c>
       <c r="AK15">
-        <v>0.7965036850253293</v>
+        <v>-3.267557970931712</v>
       </c>
       <c r="AL15">
-        <v>0.7965036850253293</v>
+        <v>-1.761645650979182</v>
       </c>
       <c r="AM15">
-        <v>0.7965036850253293</v>
+        <v>-1.756736100255085</v>
       </c>
       <c r="AN15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AO15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AP15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AQ15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AR15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AS15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AT15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AU15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AV15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AW15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AX15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AY15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="AZ15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
       <c r="BA15">
-        <v>0.7965036850253293</v>
+        <v>-1.740831309918522</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>0.9768069524719092</v>
-      </c>
-      <c r="V16">
-        <v>1.039193228094359</v>
-      </c>
-      <c r="W16">
-        <v>1.080096276728471</v>
-      </c>
-      <c r="X16">
-        <v>1.076386909629967</v>
-      </c>
-      <c r="Y16">
-        <v>1.125010763074807</v>
-      </c>
-      <c r="Z16">
-        <v>0.8791375467670726</v>
-      </c>
-      <c r="AA16">
-        <v>0.5566732908481198</v>
-      </c>
-      <c r="AB16">
-        <v>1.437659299153027</v>
-      </c>
-      <c r="AC16">
-        <v>1.315960672561256</v>
-      </c>
-      <c r="AD16">
-        <v>1.361817904277696</v>
-      </c>
-      <c r="AE16">
-        <v>1.364710965483651</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>1.420403924237745</v>
+        <v>0.7806379083681758</v>
       </c>
       <c r="AG16">
-        <v>1.420403924237745</v>
+        <v>3977779.697945923</v>
       </c>
       <c r="AH16">
-        <v>1.420403924237745</v>
+        <v>0.2220333069742342</v>
       </c>
       <c r="AI16">
-        <v>1.420403924237745</v>
+        <v>0.7205250207272584</v>
       </c>
       <c r="AJ16">
-        <v>1.420403924237745</v>
+        <v>-0.02600701460454546</v>
       </c>
       <c r="AK16">
-        <v>1.420403924237745</v>
+        <v>-0.1236387062395705</v>
       </c>
       <c r="AL16">
-        <v>1.420403924237745</v>
+        <v>0.6980411378030515</v>
       </c>
       <c r="AM16">
-        <v>1.420403924237745</v>
+        <v>2.963427100546601</v>
       </c>
       <c r="AN16">
-        <v>1.420403924237745</v>
+        <v>4.274815646690611</v>
       </c>
       <c r="AO16">
-        <v>1.420403924237745</v>
+        <v>4.760338476399095</v>
       </c>
       <c r="AP16">
-        <v>1.420403924237745</v>
+        <v>5.20787683103745</v>
       </c>
       <c r="AQ16">
-        <v>1.420403924237745</v>
+        <v>4.776616269723477</v>
       </c>
       <c r="AR16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AS16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AT16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AU16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AV16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AW16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AX16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AY16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="AZ16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
       <c r="BA16">
-        <v>1.420403924237745</v>
+        <v>5.27347369917277</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>1.0541674984474</v>
-      </c>
-      <c r="Y17">
-        <v>1.051400393547874</v>
-      </c>
-      <c r="Z17">
-        <v>1.013990183590074</v>
-      </c>
-      <c r="AA17">
-        <v>0.9336434107631186</v>
-      </c>
-      <c r="AB17">
-        <v>1.280675138581411</v>
-      </c>
-      <c r="AC17">
-        <v>1.194139179128939</v>
-      </c>
-      <c r="AD17">
-        <v>1.226035857429442</v>
-      </c>
-      <c r="AE17">
-        <v>1.08139044988087</v>
-      </c>
-      <c r="AF17">
-        <v>-1.741236505435428</v>
-      </c>
-      <c r="AG17">
-        <v>-11.35433171961127</v>
-      </c>
-      <c r="AH17">
-        <v>-4.352425014431304</v>
-      </c>
-      <c r="AI17">
-        <v>-4.277673934072568</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-4.401478753282284</v>
+        <v>0.7918080058544996</v>
       </c>
       <c r="AK17">
-        <v>-4.401478753282284</v>
+        <v>0.6407414208644324</v>
       </c>
       <c r="AL17">
-        <v>-4.401478753282284</v>
+        <v>0.8627667146878792</v>
       </c>
       <c r="AM17">
-        <v>-4.401478753282284</v>
+        <v>0.7869067613600622</v>
       </c>
       <c r="AN17">
-        <v>-4.401478753282284</v>
+        <v>1.067796713188418</v>
       </c>
       <c r="AO17">
-        <v>-4.401478753282284</v>
+        <v>1.198244109302959</v>
       </c>
       <c r="AP17">
-        <v>-4.401478753282284</v>
+        <v>1.605691900741091</v>
       </c>
       <c r="AQ17">
-        <v>-4.401478753282284</v>
+        <v>0.7301796754034084</v>
       </c>
       <c r="AR17">
-        <v>-4.401478753282284</v>
+        <v>-0.3620058052652531</v>
       </c>
       <c r="AS17">
-        <v>-4.401478753282284</v>
+        <v>-0.4145164791766631</v>
       </c>
       <c r="AT17">
-        <v>-4.401478753282284</v>
+        <v>-0.9008525709169657</v>
       </c>
       <c r="AU17">
-        <v>-4.401478753282284</v>
+        <v>-0.6887889394080915</v>
       </c>
       <c r="AV17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
       <c r="AW17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
       <c r="AX17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
       <c r="AY17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
       <c r="AZ17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
       <c r="BA17">
-        <v>-4.401478753282284</v>
+        <v>-0.7058256052666523</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>1.144414421193951</v>
-      </c>
-      <c r="AC18">
-        <v>1.13551281034614</v>
-      </c>
-      <c r="AD18">
-        <v>1.124268103235648</v>
-      </c>
-      <c r="AE18">
-        <v>1.151701057323207</v>
-      </c>
-      <c r="AF18">
-        <v>-0.2374583495023508</v>
-      </c>
-      <c r="AG18">
-        <v>-86.41378142719947</v>
-      </c>
-      <c r="AH18">
-        <v>-1.222056059052401</v>
-      </c>
-      <c r="AI18">
-        <v>-2.083284801880281</v>
-      </c>
-      <c r="AJ18">
-        <v>-2.829585457923245</v>
-      </c>
-      <c r="AK18">
-        <v>-3.267557970931712</v>
-      </c>
-      <c r="AL18">
-        <v>-1.761645650979182</v>
-      </c>
-      <c r="AM18">
-        <v>-1.756736100255085</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>-1.740831309918522</v>
+        <v>1.070916402869093</v>
       </c>
       <c r="AO18">
-        <v>-1.740831309918522</v>
+        <v>1.086716614937511</v>
       </c>
       <c r="AP18">
-        <v>-1.740831309918522</v>
+        <v>1.154261447042471</v>
       </c>
       <c r="AQ18">
-        <v>-1.740831309918522</v>
+        <v>1.10096958277186</v>
       </c>
       <c r="AR18">
-        <v>-1.740831309918522</v>
+        <v>0.8526129829289797</v>
       </c>
       <c r="AS18">
-        <v>-1.740831309918522</v>
+        <v>0.8038408582027312</v>
       </c>
       <c r="AT18">
-        <v>-1.740831309918522</v>
+        <v>0.4115388134666942</v>
       </c>
       <c r="AU18">
-        <v>-1.740831309918522</v>
+        <v>0.5049100239512105</v>
       </c>
       <c r="AV18">
-        <v>-1.740831309918522</v>
+        <v>0.352566175393898</v>
       </c>
       <c r="AW18">
-        <v>-1.740831309918522</v>
+        <v>0.5764596341398365</v>
       </c>
       <c r="AX18">
-        <v>-1.740831309918522</v>
+        <v>0.2738544794132602</v>
       </c>
       <c r="AY18">
-        <v>-1.740831309918522</v>
+        <v>0.5424001444948034</v>
       </c>
       <c r="AZ18">
-        <v>-1.740831309918522</v>
+        <v>0.4368922194300628</v>
       </c>
       <c r="BA18">
-        <v>-1.740831309918522</v>
+        <v>0.4368922194300628</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>0.7806379083681758</v>
-      </c>
-      <c r="AG19">
-        <v>3977779.697945923</v>
-      </c>
-      <c r="AH19">
-        <v>0.2220333069742342</v>
-      </c>
-      <c r="AI19">
-        <v>0.7205250207272362</v>
-      </c>
-      <c r="AJ19">
-        <v>-0.02600701460458987</v>
-      </c>
-      <c r="AK19">
-        <v>-0.1236387062395816</v>
-      </c>
-      <c r="AL19">
-        <v>0.6980411378030738</v>
-      </c>
-      <c r="AM19">
-        <v>2.963427100546601</v>
-      </c>
-      <c r="AN19">
-        <v>4.274815646690633</v>
-      </c>
-      <c r="AO19">
-        <v>4.760338476399095</v>
-      </c>
-      <c r="AP19">
-        <v>5.20787683103745</v>
-      </c>
-      <c r="AQ19">
-        <v>4.776616269723477</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>5.273473699172748</v>
+        <v>0.9606100873210233</v>
       </c>
       <c r="AS19">
-        <v>5.273473699172748</v>
+        <v>0.8959516400100176</v>
       </c>
       <c r="AT19">
-        <v>5.273473699172748</v>
+        <v>0.7806527961665255</v>
       </c>
       <c r="AU19">
-        <v>5.273473699172748</v>
+        <v>0.8138146925835477</v>
       </c>
       <c r="AV19">
-        <v>5.273473699172748</v>
+        <v>0.7200685864094281</v>
       </c>
       <c r="AW19">
-        <v>5.273473699172748</v>
+        <v>0.7779893081418798</v>
       </c>
       <c r="AX19">
-        <v>5.273473699172748</v>
+        <v>0.6247505135484221</v>
       </c>
       <c r="AY19">
-        <v>5.273473699172748</v>
+        <v>0.5923184148080018</v>
       </c>
       <c r="AZ19">
-        <v>5.273473699172748</v>
+        <v>0.9127736322763536</v>
       </c>
       <c r="BA19">
-        <v>5.273473699172748</v>
+        <v>0.9763219302888704</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>0.7918080058545218</v>
-      </c>
-      <c r="AK20">
-        <v>0.6407414208644546</v>
-      </c>
-      <c r="AL20">
-        <v>0.8627667146878792</v>
-      </c>
-      <c r="AM20">
-        <v>0.78690676136004</v>
-      </c>
-      <c r="AN20">
-        <v>1.067796713188396</v>
-      </c>
-      <c r="AO20">
-        <v>1.198244109302982</v>
-      </c>
-      <c r="AP20">
-        <v>1.605691900741069</v>
-      </c>
-      <c r="AQ20">
-        <v>0.7301796754034084</v>
-      </c>
-      <c r="AR20">
-        <v>-0.3620058052652531</v>
-      </c>
-      <c r="AS20">
-        <v>-0.414516479176652</v>
-      </c>
-      <c r="AT20">
-        <v>-0.9008525709169546</v>
-      </c>
-      <c r="AU20">
-        <v>-0.6887889394080693</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-0.7058256052666523</v>
+        <v>0.7933168657237699</v>
       </c>
       <c r="AW20">
-        <v>-0.7058256052666523</v>
+        <v>0.7991228848251097</v>
       </c>
       <c r="AX20">
-        <v>-0.7058256052666523</v>
+        <v>0.7669379062289261</v>
       </c>
       <c r="AY20">
-        <v>-0.7058256052666523</v>
+        <v>0.8307144575629977</v>
       </c>
       <c r="AZ20">
-        <v>-0.7058256052666523</v>
+        <v>0.8664788249411304</v>
       </c>
       <c r="BA20">
-        <v>-0.7058256052666523</v>
+        <v>0.8639434569707616</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>1.070916402869115</v>
-      </c>
-      <c r="AO21">
-        <v>1.086716614937489</v>
-      </c>
-      <c r="AP21">
-        <v>1.154261447042471</v>
-      </c>
-      <c r="AQ21">
-        <v>1.100969582771905</v>
-      </c>
-      <c r="AR21">
-        <v>0.8526129829289797</v>
-      </c>
-      <c r="AS21">
-        <v>0.8038408582027534</v>
-      </c>
-      <c r="AT21">
-        <v>0.4115388134666942</v>
-      </c>
-      <c r="AU21">
-        <v>0.5049100239511883</v>
-      </c>
-      <c r="AV21">
-        <v>0.352566175393898</v>
-      </c>
-      <c r="AW21">
-        <v>0.5764596341398587</v>
-      </c>
-      <c r="AX21">
-        <v>0.2738544794132824</v>
-      </c>
-      <c r="AY21">
-        <v>0.5424001444948257</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>0.4368922194300628</v>
+        <v>0.8381163757031684</v>
       </c>
       <c r="BA21">
-        <v>0.4368922194300628</v>
+        <v>0.8202605398609064</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>0.9606100873210677</v>
-      </c>
-      <c r="AS22">
-        <v>0.8959516400099954</v>
-      </c>
-      <c r="AT22">
-        <v>0.7806527961665477</v>
-      </c>
-      <c r="AU22">
-        <v>0.8138146925835477</v>
-      </c>
-      <c r="AV22">
-        <v>0.7200685864094503</v>
-      </c>
-      <c r="AW22">
-        <v>0.7779893081418576</v>
-      </c>
-      <c r="AX22">
-        <v>0.6247505135484666</v>
-      </c>
-      <c r="AY22">
-        <v>0.5923184148079574</v>
-      </c>
-      <c r="AZ22">
-        <v>0.9127736322763536</v>
-      </c>
-      <c r="BA22">
-        <v>0.9763219302888704</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>0.7933168657237699</v>
-      </c>
-      <c r="AW23">
-        <v>0.7991228848251097</v>
-      </c>
-      <c r="AX23">
-        <v>0.7669379062289261</v>
-      </c>
-      <c r="AY23">
-        <v>0.8307144575629977</v>
-      </c>
-      <c r="AZ23">
-        <v>0.8664788249411304</v>
-      </c>
-      <c r="BA23">
-        <v>0.8639434569707394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>0.8381163757031684</v>
-      </c>
-      <c r="BA24">
-        <v>0.8202605398609286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PRIVCON_AR_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -686,8 +689,11 @@
       <c r="BA3">
         <v>0.2361821772587591</v>
       </c>
+      <c r="BB3">
+        <v>0.2361821772587591</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -832,8 +838,11 @@
       <c r="BA4">
         <v>0.1732386938003039</v>
       </c>
+      <c r="BB4">
+        <v>0.1732386938003039</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="BA5">
         <v>2.130327852244007</v>
       </c>
+      <c r="BB5">
+        <v>2.130327852244007</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1124,8 +1136,11 @@
       <c r="BA6">
         <v>1.019364148315116</v>
       </c>
+      <c r="BB6">
+        <v>1.019364148315116</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1264,8 +1279,11 @@
       <c r="BA7">
         <v>0.8966256141480056</v>
       </c>
+      <c r="BB7">
+        <v>0.8966256141480056</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1398,8 +1416,11 @@
       <c r="BA8">
         <v>0.4602645177979703</v>
       </c>
+      <c r="BB8">
+        <v>0.4602645177979703</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1526,8 +1547,11 @@
       <c r="BA9">
         <v>2.152035874345892</v>
       </c>
+      <c r="BB9">
+        <v>2.152035874345892</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1648,8 +1672,11 @@
       <c r="BA10">
         <v>1.918040486507278</v>
       </c>
+      <c r="BB10">
+        <v>1.918040486507278</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1764,8 +1791,11 @@
       <c r="BA11">
         <v>1.673405723817356</v>
       </c>
+      <c r="BB11">
+        <v>1.673405723817356</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1874,8 +1904,11 @@
       <c r="BA12">
         <v>0.7965036850253515</v>
       </c>
+      <c r="BB12">
+        <v>0.7965036850253515</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -1978,8 +2011,11 @@
       <c r="BA13">
         <v>1.420403924237745</v>
       </c>
+      <c r="BB13">
+        <v>1.420403924237745</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2073,8 +2109,11 @@
       <c r="BA14">
         <v>-4.401478753282307</v>
       </c>
+      <c r="BB14">
+        <v>-4.401478753282307</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2156,8 +2195,11 @@
       <c r="BA15">
         <v>-1.740831309918522</v>
       </c>
+      <c r="BB15">
+        <v>-1.740831309918522</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2227,8 +2269,11 @@
       <c r="BA16">
         <v>5.27347369917277</v>
       </c>
+      <c r="BB16">
+        <v>5.27347369917277</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2286,8 +2331,11 @@
       <c r="BA17">
         <v>-0.7058256052666523</v>
       </c>
+      <c r="BB17">
+        <v>-0.7058256052666523</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2333,8 +2381,11 @@
       <c r="BA18">
         <v>0.4368922194300628</v>
       </c>
+      <c r="BB18">
+        <v>0.4368922194300628</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2368,8 +2419,11 @@
       <c r="BA19">
         <v>0.9763219302888704</v>
       </c>
+      <c r="BB19">
+        <v>0.8976398032236155</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2391,8 +2445,11 @@
       <c r="BA20">
         <v>0.8639434569707616</v>
       </c>
+      <c r="BB20">
+        <v>0.7456737245741252</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2402,8 +2459,11 @@
       <c r="BA21">
         <v>0.8202605398609064</v>
       </c>
+      <c r="BB21">
+        <v>0.7805163230192314</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
